--- a/data-files/vopmembership_data.xlsx
+++ b/data-files/vopmembership_data.xlsx
@@ -1166,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>05/12/2023 at 14:57</t>
+          <t>05/15/2023 at 11:35</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Marjorie</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>vopmembershiptest+mgreen@gmail.com</t>
+          <t>vopmembershiptest+ogreen@gmail.com</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
@@ -3620,69 +3620,261 @@
       </c>
       <c r="N38" s="6" t="n"/>
     </row>
-    <row r="39">
-      <c r="A39" s="10" t="inlineStr">
+    <row r="39" ht="13.55" customHeight="1" s="9">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>Hyrule</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="C39" s="10" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>they/them</t>
         </is>
       </c>
-      <c r="D39" s="10" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="E39" s="10" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F39" s="10" t="n"/>
-      <c r="G39" s="10" t="inlineStr">
+      <c r="F39" s="6" t="n"/>
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>1 Hyrule Castle</t>
         </is>
       </c>
-      <c r="H39" s="10" t="inlineStr">
+      <c r="H39" s="4" t="inlineStr">
         <is>
           <t>Hyrule</t>
         </is>
       </c>
-      <c r="I39" s="10" t="inlineStr">
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="J39" s="10" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>09876</t>
         </is>
       </c>
-      <c r="K39" s="10" t="inlineStr">
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>123-456-7890</t>
         </is>
       </c>
-      <c r="L39" s="10" t="inlineStr">
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>vopmembershiptest+lhyrule@gmail.com</t>
         </is>
       </c>
-      <c r="M39" s="10" t="inlineStr">
+      <c r="M39" s="4" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="N39" s="10" t="n"/>
+      <c r="N39" s="6" t="n"/>
+    </row>
+    <row r="40" ht="13.55" customHeight="1" s="9">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Wendy</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>she/her</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="n"/>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>12 Granite St</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>43454</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>098-765-4321</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>vopmembershiptest+wanne@gmail.com</t>
+        </is>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="N40" s="6" t="n"/>
+    </row>
+    <row r="41" ht="13.55" customHeight="1" s="9">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>ze/zir</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="n"/>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>4 Color Rd</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>Little Rock</t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>09876</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>1234566789</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>vopmembershiptest+pblue@gmail.com</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="N41" s="6" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>Bryan</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>he/him</t>
+        </is>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="E42" s="10" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n"/>
+      <c r="G42" s="10" t="inlineStr">
+        <is>
+          <t>13 Beach St</t>
+        </is>
+      </c>
+      <c r="H42" s="10" t="inlineStr">
+        <is>
+          <t>Beach City</t>
+        </is>
+      </c>
+      <c r="I42" s="10" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J42" s="10" t="inlineStr">
+        <is>
+          <t>09876</t>
+        </is>
+      </c>
+      <c r="K42" s="10" t="inlineStr">
+        <is>
+          <t>098-765-5432</t>
+        </is>
+      </c>
+      <c r="L42" s="10" t="inlineStr">
+        <is>
+          <t>vopmembershiptest+bmountain@gmail.com</t>
+        </is>
+      </c>
+      <c r="M42" s="10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="N42" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
